--- a/data/oms_sample_aug_2020/TLM Analytics Outage Sample.xlsx
+++ b/data/oms_sample_aug_2020/TLM Analytics Outage Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edisonintl-my.sharepoint.com/personal/timothy_stout_sce_com/Documents/TempShare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb2\Documents\Project\Network-Connectivity-Analysis\data\oms_sample_aug_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC1862B-7ED7-4738-B9A1-02CDBA086041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D6B9F-1E18-4065-9BB5-ED5E8A76E886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="2232" windowWidth="19092" windowHeight="9504" xr2:uid="{AF1520FD-F688-442E-ABC4-9754421993F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{AF1520FD-F688-442E-ABC4-9754421993F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1087,22 +1087,22 @@
   <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>122186365</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>122186365</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>122186365</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>122186365</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>122186365</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>122186365</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>122186365</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>122186365</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>122186365</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>122186365</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>122186365</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>122186365</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>122186365</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>122186365</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>122186365</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>122186365</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>122186365</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>122186365</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>122186365</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>122186365</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>122186365</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122186365</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>122186365</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>122186365</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>122186365</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>122186365</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>122186365</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>122186365</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>122186365</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>122186365</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>122186365</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>122186365</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>122186365</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>122186365</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>122186365</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>122186365</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>122186365</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>122186365</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>122186365</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>122186365</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>122186365</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>122186365</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>122186365</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>122186365</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>122186365</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>122186365</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>122186365</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>122186365</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>122186365</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>122186365</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>122186365</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>122186365</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>122186365</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>122186365</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>122186365</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>122186365</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>122186365</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>122186365</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>122186365</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>122186365</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>122186365</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>122186365</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>122186365</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>122186365</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>122186365</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>122186365</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>122186365</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>122186365</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>122186365</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>122186365</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>122186365</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>122186365</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>122186365</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>122186365</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>122186365</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>122186365</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>122186365</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>122186365</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>122186365</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>122186365</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>122186365</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>122186365</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>122186365</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>122186365</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>122186365</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>122186365</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>122186365</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>122186365</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>122186365</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>122186365</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>122186365</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>122186365</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122186365</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>122186365</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>122186365</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>122186365</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>122186365</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>122186365</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>122186365</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>122186365</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>122186365</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>122186365</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>122186365</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>122186365</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>122186365</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>122186365</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>122186365</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>122186365</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>122186365</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>122186365</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>122186365</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>122186365</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>122186365</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>122186365</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>122186365</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>122186365</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>122186365</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>122186365</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>122186365</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>122186365</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122186365</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122186365</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122186365</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>122186365</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122186365</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>122186365</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>122186365</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>122186365</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>122186365</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>122186365</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>122186365</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>122186365</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>122186365</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>122186365</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>122186365</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>122186365</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>122186365</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>122186365</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>122186365</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>122186365</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>122186365</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>122186365</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>122186365</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>122186365</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>122186365</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>122186365</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>122186365</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>122186365</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>122186365</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>122186365</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>122186365</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>122186365</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>122186365</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>122186365</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>122186365</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>122186365</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>122186365</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>122186365</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>122186365</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>122186365</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>122186365</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>122186365</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>122186365</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>122186365</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>122186365</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>122186365</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>122186365</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>122186365</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>122186365</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>122186365</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>122186365</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>122186365</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>122186365</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>122186365</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>122186365</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>122186365</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>122186365</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>122186365</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>122186365</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>122186365</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>122186365</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>122186365</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>122186365</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>122186365</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>122186365</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>122186365</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>122186365</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>122186365</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>122186365</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>122186365</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>122186365</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>122186365</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>122186365</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>122186365</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>122186365</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>122186365</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>122186365</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>122186365</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>122186365</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>122186365</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>122186365</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>122186365</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>122186365</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>122186365</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>122186365</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>122186365</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>122186365</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>122186365</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>122186365</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>122186365</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>122186365</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>122186365</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>122186365</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>122186365</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>122186365</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>122186365</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>122186365</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>122186365</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>122186365</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>122186365</v>
       </c>
@@ -6854,6 +6854,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8AC27B3470EAB46A329FD92A11ACBD1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c753210e27562dcb2d112f31dcc0e56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0bc2e7ab-a9ef-4507-aecb-8204a3dc15b0" xmlns:ns4="974c324c-599a-433a-b66e-41663df5c93f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5410d3afea79ccf71bdd2a0bc5827b7" ns3:_="" ns4:_="">
     <xsd:import namespace="0bc2e7ab-a9ef-4507-aecb-8204a3dc15b0"/>
@@ -7090,22 +7105,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042C2BBD-8015-4C4B-9238-51EE92C76E97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A71A73C6-A5F3-4EEF-B69E-EB25F8277D1A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8D1CF96-040C-40CC-BEF4-8461CA4F9560}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7122,21 +7139,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A71A73C6-A5F3-4EEF-B69E-EB25F8277D1A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{042C2BBD-8015-4C4B-9238-51EE92C76E97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>